--- a/public/file/kartu-induk-pegawai.xlsx
+++ b/public/file/kartu-induk-pegawai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>NIP</t>
   </si>
@@ -53,6 +53,9 @@
     <t>JENIS_KEPEGAWAIAN</t>
   </si>
   <si>
+    <t>TGL_PENSIUN</t>
+  </si>
+  <si>
     <t>E315</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>PNS Pusat</t>
   </si>
   <si>
+    <t>16-02-2043</t>
+  </si>
+  <si>
     <t>FR43</t>
   </si>
   <si>
@@ -108,6 +114,9 @@
   </si>
   <si>
     <t>Honor</t>
+  </si>
+  <si>
+    <t>19-04-2037</t>
   </si>
 </sst>
 </file>
@@ -122,6 +131,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -143,6 +153,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,10 +224,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -232,7 +243,8 @@
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.0561224489796"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -272,43 +284,49 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>80989999</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -316,37 +334,40 @@
         <v>54655654</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>22</v>
+      <c r="M3" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/public/file/kartu-induk-pegawai.xlsx
+++ b/public/file/kartu-induk-pegawai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>NIP</t>
   </si>
@@ -68,18 +68,12 @@
     <t>Samarinda</t>
   </si>
   <si>
-    <t>16-02-1988</t>
-  </si>
-  <si>
     <t>Pria</t>
   </si>
   <si>
     <t>Belum Kawin</t>
   </si>
   <si>
-    <t>01-12-2014</t>
-  </si>
-  <si>
     <t>PNS</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>PNS Pusat</t>
   </si>
   <si>
-    <t>16-02-2043</t>
-  </si>
-  <si>
     <t>FR43</t>
   </si>
   <si>
@@ -101,30 +92,34 @@
     <t>H. Mia Megawati</t>
   </si>
   <si>
-    <t>19-04-1982</t>
-  </si>
-  <si>
     <t>Wanita</t>
   </si>
   <si>
     <t>Sudah Kawin</t>
   </si>
   <si>
-    <t>09-03-2013</t>
-  </si>
-  <si>
     <t>Honor</t>
   </si>
   <si>
-    <t>19-04-2037</t>
+    <t>CG43</t>
+  </si>
+  <si>
+    <t>M5434</t>
+  </si>
+  <si>
+    <t>H. M. Subhan Ali, S.Pd</t>
+  </si>
+  <si>
+    <t>Banjarmasin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="DD\-MM\-YYYY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -198,13 +193,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -224,10 +223,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -304,29 +303,30 @@
       <c r="E2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="2" t="n">
+        <v>32189</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>24</v>
+      <c r="M2" s="2" t="n">
+        <f aca="false">DATE(YEAR(F2)+55,MONTH(F2),DAY(F2))</f>
+        <v>52278</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -334,40 +334,83 @@
         <v>54655654</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="n">
+        <v>30060</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>41342</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <f aca="false">DATE(YEAR(F3)+55,MONTH(F3),DAY(F3))</f>
+        <v>50149</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>32353634</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>33</v>
+      <c r="F4" s="2" t="n">
+        <v>28036</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>40291</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <f aca="false">DATE(YEAR(F4)+55,MONTH(F4),DAY(F4))</f>
+        <v>48124</v>
       </c>
     </row>
   </sheetData>
